--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H2">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N2">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O2">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P2">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q2">
-        <v>312.8033680003166</v>
+        <v>505.1177846858168</v>
       </c>
       <c r="R2">
-        <v>2815.23031200285</v>
+        <v>4546.060062172352</v>
       </c>
       <c r="S2">
-        <v>0.02736695010908001</v>
+        <v>0.05544661603483778</v>
       </c>
       <c r="T2">
-        <v>0.02736695010908002</v>
+        <v>0.05544661603483778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H3">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N3">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q3">
-        <v>1.144489370622222</v>
+        <v>4.572693329456</v>
       </c>
       <c r="R3">
-        <v>10.3004043356</v>
+        <v>41.154239965104</v>
       </c>
       <c r="S3">
-        <v>0.0001001305826929556</v>
+        <v>0.0005019430694587657</v>
       </c>
       <c r="T3">
-        <v>0.0001001305826929556</v>
+        <v>0.0005019430694587657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H4">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N4">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O4">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P4">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q4">
-        <v>1.833371687166666</v>
+        <v>0.8768174904835555</v>
       </c>
       <c r="R4">
-        <v>16.5003451845</v>
+        <v>7.891357414351999</v>
       </c>
       <c r="S4">
-        <v>0.0001604004196465021</v>
+        <v>9.624797265396471E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001604004196465021</v>
+        <v>9.624797265396471E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>466.172821</v>
       </c>
       <c r="I5">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J5">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N5">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O5">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P5">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q5">
-        <v>5475.044857877488</v>
+        <v>6899.699818056653</v>
       </c>
       <c r="R5">
-        <v>49275.40372089739</v>
+        <v>62097.29836250989</v>
       </c>
       <c r="S5">
-        <v>0.479007884180955</v>
+        <v>0.7573778199185417</v>
       </c>
       <c r="T5">
-        <v>0.479007884180955</v>
+        <v>0.7573778199185418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>466.172821</v>
       </c>
       <c r="I6">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J6">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N6">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q6">
-        <v>20.03217127609155</v>
+        <v>62.461097767327</v>
       </c>
       <c r="R6">
-        <v>180.289541484824</v>
+        <v>562.1498799059431</v>
       </c>
       <c r="S6">
-        <v>0.001752600796449188</v>
+        <v>0.006856334522399738</v>
       </c>
       <c r="T6">
-        <v>0.001752600796449188</v>
+        <v>0.006856334522399738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J7">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N7">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O7">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P7">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q7">
-        <v>32.08978308823666</v>
+        <v>11.97696391411211</v>
       </c>
       <c r="R7">
-        <v>288.80804779413</v>
+        <v>107.792675227009</v>
       </c>
       <c r="S7">
-        <v>0.002807512906274345</v>
+        <v>0.001314707459413532</v>
       </c>
       <c r="T7">
-        <v>0.002807512906274346</v>
+        <v>0.001314707459413532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H8">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I8">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J8">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N8">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O8">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P8">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q8">
-        <v>211.7197381562153</v>
+        <v>528.0957462670116</v>
       </c>
       <c r="R8">
-        <v>1905.477643405938</v>
+        <v>4752.861716403104</v>
       </c>
       <c r="S8">
-        <v>0.01852321331534628</v>
+        <v>0.05796889945403716</v>
       </c>
       <c r="T8">
-        <v>0.01852321331534629</v>
+        <v>0.05796889945403716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H9">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I9">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J9">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N9">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q9">
-        <v>0.7746431613564443</v>
+        <v>4.780706539112001</v>
       </c>
       <c r="R9">
-        <v>6.971788452207998</v>
+        <v>43.026358852008</v>
       </c>
       <c r="S9">
-        <v>6.777299389295696E-05</v>
+        <v>0.0005247766122791682</v>
       </c>
       <c r="T9">
-        <v>6.777299389295698E-05</v>
+        <v>0.0005247766122791682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H10">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I10">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J10">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N10">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O10">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P10">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q10">
-        <v>1.240910467273333</v>
+        <v>0.9167041846782222</v>
       </c>
       <c r="R10">
-        <v>11.16819420546</v>
+        <v>8.250337662104</v>
       </c>
       <c r="S10">
-        <v>0.0001085663976855585</v>
+        <v>0.000100626322189383</v>
       </c>
       <c r="T10">
-        <v>0.0001085663976855585</v>
+        <v>0.000100626322189383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H11">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I11">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J11">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N11">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O11">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P11">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q11">
-        <v>630.4675838205103</v>
+        <v>1051.939892951954</v>
       </c>
       <c r="R11">
-        <v>5674.208254384593</v>
+        <v>9467.459036567585</v>
       </c>
       <c r="S11">
-        <v>0.0551591724287018</v>
+        <v>0.1154711021955293</v>
       </c>
       <c r="T11">
-        <v>0.05515917242870181</v>
+        <v>0.1154711021955293</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H12">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I12">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J12">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N12">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q12">
-        <v>2.30676367974311</v>
+        <v>9.522924508552</v>
       </c>
       <c r="R12">
-        <v>20.760873117688</v>
+        <v>85.70632057696801</v>
       </c>
       <c r="S12">
-        <v>0.0002018171573424479</v>
+        <v>0.001045328346700074</v>
       </c>
       <c r="T12">
-        <v>0.000201817157342448</v>
+        <v>0.001045328346700074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H13">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I13">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J13">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N13">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O13">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P13">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q13">
-        <v>3.695233287423333</v>
+        <v>1.826028156287111</v>
       </c>
       <c r="R13">
-        <v>33.25709958681</v>
+        <v>16.434253406584</v>
       </c>
       <c r="S13">
-        <v>0.000323293402065363</v>
+        <v>0.0002004425207744959</v>
       </c>
       <c r="T13">
-        <v>0.0003232934020653631</v>
+        <v>0.0002004425207744959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H14">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I14">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J14">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N14">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O14">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P14">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q14">
-        <v>4692.146403471581</v>
+        <v>27.895860596472</v>
       </c>
       <c r="R14">
-        <v>42229.31763124423</v>
+        <v>251.062745368248</v>
       </c>
       <c r="S14">
-        <v>0.4105126404143321</v>
+        <v>0.003062119605263968</v>
       </c>
       <c r="T14">
-        <v>0.4105126404143322</v>
+        <v>0.003062119605263968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H15">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I15">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J15">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N15">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q15">
-        <v>17.16769137911289</v>
+        <v>0.252533606094</v>
       </c>
       <c r="R15">
-        <v>154.509222412016</v>
+        <v>2.272802454846</v>
       </c>
       <c r="S15">
-        <v>0.001501989433373971</v>
+        <v>2.772053235404553E-05</v>
       </c>
       <c r="T15">
-        <v>0.001501989433373972</v>
+        <v>2.772053235404553E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H16">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I16">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J16">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N16">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O16">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P16">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q16">
-        <v>27.50113729004667</v>
+        <v>0.048423514722</v>
       </c>
       <c r="R16">
-        <v>247.51023561042</v>
+        <v>0.4358116324979999</v>
       </c>
       <c r="S16">
-        <v>0.002406055462161473</v>
+        <v>5.315433566683992E-06</v>
       </c>
       <c r="T16">
-        <v>0.002406055462161473</v>
+        <v>5.315433566683992E-06</v>
       </c>
     </row>
   </sheetData>
